--- a/Beaufighter.xlsx
+++ b/Beaufighter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D1DBE5-03C5-4C64-B87A-7F2FA4FAD5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4645E57-B1DF-4639-B260-75C593F11C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15855" xr2:uid="{B9646992-58BC-44A8-9040-42DC40CCACD9}"/>
   </bookViews>
@@ -29,12 +29,12 @@
     <definedName name="ExternalData_2" localSheetId="1" hidden="1">ExtractMan!$A$1:$C$189</definedName>
     <definedName name="ExternalData_3" localSheetId="3" hidden="1">Attempt2!$A$1:$A$5</definedName>
     <definedName name="ExternalData_4" localSheetId="2" hidden="1">CompanyNames!$A$1:$A$5</definedName>
-    <definedName name="ExternalData_5" localSheetId="0" hidden="1">'Report_First-Complete'!$A$1:$C$19</definedName>
+    <definedName name="ExternalData_5" localSheetId="0" hidden="1">'Report_First-Complete'!$A$4:$C$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
-    <pivotCache cacheId="1" r:id="rId9"/>
+    <pivotCache cacheId="2" r:id="rId8"/>
+    <pivotCache cacheId="3" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="55">
   <si>
     <t>FROM:</t>
   </si>
@@ -313,6 +313,12 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>What does C/N stand for?</t>
+  </si>
+  <si>
+    <t>Constructor Number</t>
   </si>
 </sst>
 </file>
@@ -635,7 +641,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="9"/>
@@ -659,7 +665,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -707,6 +712,17 @@
   </cellStyles>
   <dxfs count="60">
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -717,14 +733,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -738,6 +746,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="90"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1143,15 +1157,6 @@
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -1181,13 +1186,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>125362</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>10242</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1403,7 +1408,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB9F3373-2373-445A-8C42-2BA616E4E4F4}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption=" Grand Total" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB9F3373-2373-445A-8C42-2BA616E4E4F4}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption=" Grand Total" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="F4:L17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField name=" Model" axis="axisRow" showDropDowns="0" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -1501,6 +1506,23 @@
     <dataField name=" Quantity" fld="2" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="48">
+    <format dxfId="59">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="58">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="57">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
     <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
@@ -1512,40 +1534,40 @@
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="54">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="53">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="52">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="51">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="50">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+    <format dxfId="48">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="47">
+      <pivotArea outline="0" fieldPosition="0">
         <references count="1">
-          <reference field="1" count="0"/>
+          <reference field="1" count="0" selected="0"/>
         </references>
       </pivotArea>
-    </format>
-    <format dxfId="52">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="51">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="50">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="49">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="48">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="47">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
@@ -1558,39 +1580,22 @@
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="44">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0" selected="0"/>
-        </references>
-      </pivotArea>
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="43">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
     <format dxfId="40">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="39">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="38">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="37">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1599,13 +1604,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="39">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="38">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="37">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -1614,28 +1619,37 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="34">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="33">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
+    <format dxfId="32">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="31">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
     <format dxfId="29">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" offset="E1" fieldPosition="0"/>
     </format>
     <format dxfId="28">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
@@ -1644,15 +1658,6 @@
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="26">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" offset="E1" fieldPosition="0"/>
-    </format>
-    <format dxfId="25">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="24">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="23">
       <pivotArea field="1" grandRow="1" outline="0" axis="axisCol" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1" selected="0">
@@ -1661,50 +1666,50 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="24">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="23">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="20">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="19">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" offset="A1:D1" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="18">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
+    <format dxfId="17">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" offset="A1:D1" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
     <format dxfId="14">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" offset="A1:D1" fieldPosition="0"/>
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="13">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="12">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="11">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="10">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
   </formats>
@@ -1745,7 +1750,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F590103-4E74-489A-A288-87F1DE357830}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F590103-4E74-489A-A288-87F1DE357830}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="F1:J13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -1831,7 +1836,7 @@
     <dataField name="Sum of Batch Qty" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="59">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
@@ -2004,11 +2009,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{54B13B70-A67C-45DF-88EC-31F98A64AC43}" name="Table_Table_Recon_Long_Form" displayName="Table_Table_Recon_Long_Form" ref="A1:C19" tableType="queryTable">
-  <autoFilter ref="A1:C19" xr:uid="{54B13B70-A67C-45DF-88EC-31F98A64AC43}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{54B13B70-A67C-45DF-88EC-31F98A64AC43}" name="Table_Table_Recon_Long_Form" displayName="Table_Table_Recon_Long_Form" ref="A4:C22" tableType="queryTable">
+  <autoFilter ref="A4:C22" xr:uid="{54B13B70-A67C-45DF-88EC-31F98A64AC43}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{13C4F751-7E48-442B-9EA5-9B8B1F3308A5}" uniqueName="1" name="Model" totalsRowLabel="Total" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{696F949C-60A6-49B1-8E2C-244965AC791D}" uniqueName="6" name="Company" queryTableFieldId="6" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{13C4F751-7E48-442B-9EA5-9B8B1F3308A5}" uniqueName="1" name="Model" totalsRowLabel="Total" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{696F949C-60A6-49B1-8E2C-244965AC791D}" uniqueName="6" name="Company" queryTableFieldId="6" dataDxfId="10"/>
     <tableColumn id="7" xr3:uid="{77A904AF-404A-4258-9880-1662C8F0669A}" uniqueName="7" name="Count" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2019,8 +2024,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3A996207-D0F7-41E3-B944-7C7762648251}" name="Table_ExtractMan" displayName="Table_ExtractMan" ref="A1:C189" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C189" xr:uid="{3A996207-D0F7-41E3-B944-7C7762648251}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AA5FFD77-EF10-4B13-B940-2B3B6A6BA5E1}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{9044426A-70B1-453D-BE1C-623A965CC080}" uniqueName="2" name="Mfg" queryTableFieldId="2" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{AA5FFD77-EF10-4B13-B940-2B3B6A6BA5E1}" uniqueName="1" name="Model" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{9044426A-70B1-453D-BE1C-623A965CC080}" uniqueName="2" name="Mfg" queryTableFieldId="2" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{7D0DCAF0-2626-4985-B182-DAEFE6B85DA7}" uniqueName="3" name="Batch Qty" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2062,8 +2067,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26C71D49-A551-4BE7-90F5-A30D870DA9B9}" name="Table_Table_3" displayName="Table_Table_3" ref="Q19:R30" tableType="queryTable" totalsRowCount="1">
   <autoFilter ref="Q19:R29" xr:uid="{26C71D49-A551-4BE7-90F5-A30D870DA9B9}"/>
   <tableColumns count="2">
-    <tableColumn id="17" xr3:uid="{52A4F838-F131-4BB3-8A6C-020E2912DE8D}" uniqueName="17" name="Model" totalsRowLabel="Total" queryTableFieldId="18" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{390036BF-A796-4D35-BAAC-B79D7994FEB8}" uniqueName="18" name="Count" totalsRowFunction="sum" queryTableFieldId="19" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{52A4F838-F131-4BB3-8A6C-020E2912DE8D}" uniqueName="17" name="Model" totalsRowLabel="Total" queryTableFieldId="18" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{390036BF-A796-4D35-BAAC-B79D7994FEB8}" uniqueName="18" name="Count" totalsRowFunction="sum" queryTableFieldId="19" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2338,10 +2343,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B09169-5F48-443B-BB14-196DD3CC325B}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A4:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2356,102 +2361,69 @@
     <col min="12" max="12" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
     <row r="4" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4">
-        <v>264</v>
-      </c>
-      <c r="F4" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="26"/>
       <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
       </c>
       <c r="C5">
-        <v>447</v>
-      </c>
-      <c r="F5" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
       <c r="C6">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>5</v>
@@ -2463,7 +2435,7 @@
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
-      <c r="L6" s="20">
+      <c r="L6" s="19">
         <v>8</v>
       </c>
     </row>
@@ -2472,10 +2444,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>264</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>9</v>
@@ -2489,19 +2461,19 @@
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
-      <c r="L7" s="20">
+      <c r="L7" s="19">
         <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8">
-        <v>298</v>
+        <v>447</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>7</v>
@@ -2517,19 +2489,19 @@
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
-      <c r="L8" s="20">
+      <c r="L8" s="19">
         <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>6</v>
@@ -2541,19 +2513,19 @@
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
-      <c r="L9" s="20">
+      <c r="L9" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10">
-        <v>668</v>
+        <v>27</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>8</v>
@@ -2565,19 +2537,19 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
-      <c r="L10" s="20">
+      <c r="L10" s="19">
         <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11">
-        <v>240</v>
+        <v>298</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>11</v>
@@ -2591,19 +2563,19 @@
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
-      <c r="L11" s="20">
+      <c r="L11" s="19">
         <v>693</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>10</v>
@@ -2619,19 +2591,19 @@
         <v>150</v>
       </c>
       <c r="K12" s="13"/>
-      <c r="L12" s="20">
+      <c r="L12" s="19">
         <v>1078</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>518</v>
+        <v>668</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>12</v>
@@ -2643,19 +2615,19 @@
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
-      <c r="L13" s="20">
+      <c r="L13" s="19">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>14</v>
@@ -2669,19 +2641,19 @@
         <v>110</v>
       </c>
       <c r="K14" s="13"/>
-      <c r="L14" s="20">
+      <c r="L14" s="19">
         <v>2215</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
       </c>
       <c r="C15">
-        <v>164</v>
+        <v>260</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>13</v>
@@ -2693,19 +2665,19 @@
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
-      <c r="L15" s="20">
+      <c r="L15" s="19">
         <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
       </c>
       <c r="C16">
-        <v>2105</v>
+        <v>518</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>43</v>
@@ -2717,19 +2689,19 @@
       <c r="K16" s="15">
         <v>365</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="20">
         <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>47</v>
@@ -2746,65 +2718,106 @@
       <c r="J17" s="14">
         <v>260</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="14">
         <v>365</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="21">
         <v>5930</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18">
-        <v>110</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19">
+        <v>2105</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20">
+        <v>150</v>
+      </c>
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <v>110</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>43</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>44</v>
       </c>
-      <c r="C19">
+      <c r="C22">
         <v>365</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F23" s="30" t="s">
+      <c r="F22" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F26" s="29" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F23" r:id="rId2" xr:uid="{E8FFCF8D-2FA6-4485-8E1E-086B85FD605F}"/>
+    <hyperlink ref="F22" r:id="rId2" xr:uid="{E8FFCF8D-2FA6-4485-8E1E-086B85FD605F}"/>
+    <hyperlink ref="F26" r:id="rId3" location="Tables" xr:uid="{A4420612-4E94-4E67-9FAF-2C254275D9A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5165,7 +5178,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView topLeftCell="O17" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19:R30"/>
     </sheetView>
   </sheetViews>
@@ -5514,7 +5527,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="R20:R29 W35:W45">
-    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+    <cfRule type="uniqueValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
